--- a/BalanceSheet/SYY_bal.xlsx
+++ b/BalanceSheet/SYY_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60665000.0</v>
+        <v>3100000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-23320000.0</v>
+        <v>3135000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>611954000.0</v>
+        <v>3095000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-217988000.0</v>
+        <v>3698000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-93072000.0</v>
+        <v>3508000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>3386808000.0</v>
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-492305000.0</v>
+        <v>3555000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>577013000.0</v>
+        <v>4035000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-480282000.0</v>
+        <v>3447000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-162556000.0</v>
+        <v>3969000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-152386000.0</v>
+        <v>4160000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>4247276000.0</v>
@@ -3200,19 +3200,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-54242000.0</v>
+        <v>-233000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-53579000.0</v>
+        <v>-174000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-46184000.0</v>
+        <v>-108000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-69235000.0</v>
+        <v>-40000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-50404000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>178719000.0</v>
